--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2399.425255688831</v>
+        <v>2520.20715347958</v>
       </c>
       <c r="AB2" t="n">
-        <v>3282.999490005045</v>
+        <v>3448.258611083618</v>
       </c>
       <c r="AC2" t="n">
-        <v>2969.674626397563</v>
+        <v>3119.161648903024</v>
       </c>
       <c r="AD2" t="n">
-        <v>2399425.255688831</v>
+        <v>2520207.15347958</v>
       </c>
       <c r="AE2" t="n">
-        <v>3282999.490005045</v>
+        <v>3448258.611083618</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.080274185677441e-06</v>
+        <v>1.557392851090262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2969674.626397563</v>
+        <v>3119161.648903024</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>783.1802164980139</v>
+        <v>852.1618180073102</v>
       </c>
       <c r="AB3" t="n">
-        <v>1071.581723685215</v>
+        <v>1165.96539412371</v>
       </c>
       <c r="AC3" t="n">
-        <v>969.3114679510923</v>
+        <v>1054.687293351251</v>
       </c>
       <c r="AD3" t="n">
-        <v>783180.2164980139</v>
+        <v>852161.8180073103</v>
       </c>
       <c r="AE3" t="n">
-        <v>1071581.723685215</v>
+        <v>1165965.39412371</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.047342055610696e-06</v>
+        <v>2.951580185307324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.84583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>969311.4679510923</v>
+        <v>1054687.293351251</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>572.282555966945</v>
+        <v>632.6307896807577</v>
       </c>
       <c r="AB4" t="n">
-        <v>783.0222403984774</v>
+        <v>865.5933561418866</v>
       </c>
       <c r="AC4" t="n">
-        <v>708.2916967534628</v>
+        <v>782.9823410996096</v>
       </c>
       <c r="AD4" t="n">
-        <v>572282.555966945</v>
+        <v>632630.7896807578</v>
       </c>
       <c r="AE4" t="n">
-        <v>783022.2403984774</v>
+        <v>865593.3561418866</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.406071862846459e-06</v>
+        <v>3.468748182718662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.63125</v>
       </c>
       <c r="AH4" t="n">
-        <v>708291.6967534628</v>
+        <v>782982.3410996096</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>559.3164489929161</v>
+        <v>611.0314044197966</v>
       </c>
       <c r="AB5" t="n">
-        <v>765.2814408123429</v>
+        <v>836.0401243302138</v>
       </c>
       <c r="AC5" t="n">
-        <v>692.2440541804602</v>
+        <v>756.2496282538215</v>
       </c>
       <c r="AD5" t="n">
-        <v>559316.4489929162</v>
+        <v>611031.4044197965</v>
       </c>
       <c r="AE5" t="n">
-        <v>765281.4408123429</v>
+        <v>836040.1243302138</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.437145245905108e-06</v>
+        <v>3.513545573303703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.47083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>692244.0541804603</v>
+        <v>756249.6282538215</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1425.831023855227</v>
+        <v>1526.669424806121</v>
       </c>
       <c r="AB2" t="n">
-        <v>1950.884910064008</v>
+        <v>2088.856458921298</v>
       </c>
       <c r="AC2" t="n">
-        <v>1764.695192331667</v>
+        <v>1889.498930210302</v>
       </c>
       <c r="AD2" t="n">
-        <v>1425831.023855227</v>
+        <v>1526669.424806121</v>
       </c>
       <c r="AE2" t="n">
-        <v>1950884.910064008</v>
+        <v>2088856.458921298</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434149038700109e-06</v>
+        <v>2.099540241471873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.92291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1764695.192331667</v>
+        <v>1889498.930210302</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>589.7874424312864</v>
+        <v>648.5388151157154</v>
       </c>
       <c r="AB3" t="n">
-        <v>806.9731983200767</v>
+        <v>887.3594183545462</v>
       </c>
       <c r="AC3" t="n">
-        <v>729.9568088664051</v>
+        <v>802.6710808835533</v>
       </c>
       <c r="AD3" t="n">
-        <v>589787.4424312864</v>
+        <v>648538.8151157154</v>
       </c>
       <c r="AE3" t="n">
-        <v>806973.1983200767</v>
+        <v>887359.4183545462</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.342961572747469e-06</v>
+        <v>3.430007602741327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.41875</v>
       </c>
       <c r="AH3" t="n">
-        <v>729956.8088664052</v>
+        <v>802671.0808835533</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>531.8809251146292</v>
+        <v>590.7175491450788</v>
       </c>
       <c r="AB4" t="n">
-        <v>727.7429466721809</v>
+        <v>808.2458113592998</v>
       </c>
       <c r="AC4" t="n">
-        <v>658.2881812354277</v>
+        <v>731.1079655032883</v>
       </c>
       <c r="AD4" t="n">
-        <v>531880.9251146292</v>
+        <v>590717.5491450788</v>
       </c>
       <c r="AE4" t="n">
-        <v>727742.9466721809</v>
+        <v>808245.8113592997</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.458110022345299e-06</v>
+        <v>3.598580601188453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.78958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>658288.1812354277</v>
+        <v>731107.9655032882</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.1203090017359</v>
+        <v>580.4914196499658</v>
       </c>
       <c r="AB2" t="n">
-        <v>719.8610175660737</v>
+        <v>794.2539698390931</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.1584923808505</v>
+        <v>718.4514857000972</v>
       </c>
       <c r="AD2" t="n">
-        <v>526120.3090017359</v>
+        <v>580491.4196499658</v>
       </c>
       <c r="AE2" t="n">
-        <v>719861.0175660737</v>
+        <v>794253.969839093</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.336207657984981e-06</v>
+        <v>3.614401611824213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.01666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>651158.4923808505</v>
+        <v>718451.4857000973</v>
       </c>
     </row>
     <row r="3">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>529.7031012571834</v>
+        <v>584.0742119054136</v>
       </c>
       <c r="AB3" t="n">
-        <v>724.763151991616</v>
+        <v>799.1561042646354</v>
       </c>
       <c r="AC3" t="n">
-        <v>655.5927739770079</v>
+        <v>722.8857672962547</v>
       </c>
       <c r="AD3" t="n">
-        <v>529703.1012571835</v>
+        <v>584074.2119054135</v>
       </c>
       <c r="AE3" t="n">
-        <v>724763.151991616</v>
+        <v>799156.1042646354</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.335870858783945e-06</v>
+        <v>3.613880541888104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.01875</v>
       </c>
       <c r="AH3" t="n">
-        <v>655592.7739770079</v>
+        <v>722885.7672962548</v>
       </c>
     </row>
   </sheetData>
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>654.4172367294424</v>
+        <v>718.588960823399</v>
       </c>
       <c r="AB2" t="n">
-        <v>895.4025341441059</v>
+        <v>983.2051181061184</v>
       </c>
       <c r="AC2" t="n">
-        <v>809.9465729907413</v>
+        <v>889.3694015711199</v>
       </c>
       <c r="AD2" t="n">
-        <v>654417.2367294424</v>
+        <v>718588.960823399</v>
       </c>
       <c r="AE2" t="n">
-        <v>895402.5341441059</v>
+        <v>983205.1181061184</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.139925226048541e-06</v>
+        <v>3.234056087038542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.68541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>809946.5729907412</v>
+        <v>889369.4015711199</v>
       </c>
     </row>
     <row r="3">
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.2200822315267</v>
+        <v>568.3703408137387</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.8421140643484</v>
+        <v>777.6693750311094</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.9547263361311</v>
+        <v>703.4497013439625</v>
       </c>
       <c r="AD3" t="n">
-        <v>512220.0822315267</v>
+        <v>568370.3408137388</v>
       </c>
       <c r="AE3" t="n">
-        <v>700842.1140643484</v>
+        <v>777669.3750311094</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.429909823420172e-06</v>
+        <v>3.672308059986624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>633954.7263361311</v>
+        <v>703449.7013439625</v>
       </c>
     </row>
   </sheetData>
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>550.7276318714609</v>
+        <v>618.6715957511595</v>
       </c>
       <c r="AB2" t="n">
-        <v>753.5298423148986</v>
+        <v>846.4937711712375</v>
       </c>
       <c r="AC2" t="n">
-        <v>681.6140117501399</v>
+        <v>765.7055937121237</v>
       </c>
       <c r="AD2" t="n">
-        <v>550727.6318714608</v>
+        <v>618671.5957511596</v>
       </c>
       <c r="AE2" t="n">
-        <v>753529.8423148986</v>
+        <v>846493.7711712376</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.191636245511075e-06</v>
+        <v>3.46385476522965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>681614.0117501399</v>
+        <v>765705.5937121237</v>
       </c>
     </row>
   </sheetData>
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1617.373964733154</v>
+        <v>1718.893564361846</v>
       </c>
       <c r="AB2" t="n">
-        <v>2212.962412051348</v>
+        <v>2351.866006991967</v>
       </c>
       <c r="AC2" t="n">
-        <v>2001.760385357419</v>
+        <v>2127.407216149325</v>
       </c>
       <c r="AD2" t="n">
-        <v>1617373.964733155</v>
+        <v>1718893.564361846</v>
       </c>
       <c r="AE2" t="n">
-        <v>2212962.412051348</v>
+        <v>2351866.006991967</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341849960433919e-06</v>
+        <v>1.956264659088999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.22083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2001760.385357419</v>
+        <v>2127407.216149325</v>
       </c>
     </row>
     <row r="3">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>632.5063169271259</v>
+        <v>691.8255954942082</v>
       </c>
       <c r="AB3" t="n">
-        <v>865.423047029017</v>
+        <v>946.586300946372</v>
       </c>
       <c r="AC3" t="n">
-        <v>782.828286049442</v>
+        <v>856.2454329262669</v>
       </c>
       <c r="AD3" t="n">
-        <v>632506.3169271259</v>
+        <v>691825.5954942082</v>
       </c>
       <c r="AE3" t="n">
-        <v>865423.047029017</v>
+        <v>946586.300946372</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266727374090111e-06</v>
+        <v>3.3046307593795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.74583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>782828.286049442</v>
+        <v>856245.4329262668</v>
       </c>
     </row>
     <row r="4">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>537.3877349202045</v>
+        <v>596.6216726327152</v>
       </c>
       <c r="AB4" t="n">
-        <v>735.2776067914716</v>
+        <v>816.3240935866289</v>
       </c>
       <c r="AC4" t="n">
-        <v>665.1037439678953</v>
+        <v>738.4152678127815</v>
       </c>
       <c r="AD4" t="n">
-        <v>537387.7349202045</v>
+        <v>596621.6726327152</v>
       </c>
       <c r="AE4" t="n">
-        <v>735277.6067914716</v>
+        <v>816324.0935866289</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456518680353e-06</v>
+        <v>3.581324902534196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.68333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>665103.7439678953</v>
+        <v>738415.2678127815</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>587.4207789696844</v>
+        <v>654.2537854530581</v>
       </c>
       <c r="AB2" t="n">
-        <v>803.7350249620897</v>
+        <v>895.1788928967954</v>
       </c>
       <c r="AC2" t="n">
-        <v>727.0276822288997</v>
+        <v>809.7442757501916</v>
       </c>
       <c r="AD2" t="n">
-        <v>587420.7789696844</v>
+        <v>654253.7854530581</v>
       </c>
       <c r="AE2" t="n">
-        <v>803735.0249620897</v>
+        <v>895178.8928967954</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.06568396139735e-06</v>
+        <v>3.309710930524511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>727027.6822288997</v>
+        <v>809744.2757501916</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>982.1401417324888</v>
+        <v>1064.386929097646</v>
       </c>
       <c r="AB2" t="n">
-        <v>1343.80747088344</v>
+        <v>1456.341153828622</v>
       </c>
       <c r="AC2" t="n">
-        <v>1215.556371907955</v>
+        <v>1317.349998094865</v>
       </c>
       <c r="AD2" t="n">
-        <v>982140.1417324888</v>
+        <v>1064386.929097646</v>
       </c>
       <c r="AE2" t="n">
-        <v>1343807.47088344</v>
+        <v>1456341.153828622</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750035737055992e-06</v>
+        <v>2.598528658901052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1215556.371907955</v>
+        <v>1317349.998094865</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>522.7802409838604</v>
+        <v>572.1796074242487</v>
       </c>
       <c r="AB3" t="n">
-        <v>715.2909891506151</v>
+        <v>782.8813816605914</v>
       </c>
       <c r="AC3" t="n">
-        <v>647.0246210632882</v>
+        <v>708.164281375824</v>
       </c>
       <c r="AD3" t="n">
-        <v>522780.2409838603</v>
+        <v>572179.6074242487</v>
       </c>
       <c r="AE3" t="n">
-        <v>715290.9891506152</v>
+        <v>782881.3816605913</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.458912940542289e-06</v>
+        <v>3.651100152097844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>647024.6210632882</v>
+        <v>708164.281375824</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.8016779778103</v>
+        <v>574.2010444181986</v>
       </c>
       <c r="AB4" t="n">
-        <v>718.0568084252435</v>
+        <v>785.6472009352199</v>
       </c>
       <c r="AC4" t="n">
-        <v>649.5264744281978</v>
+        <v>710.6661347407337</v>
       </c>
       <c r="AD4" t="n">
-        <v>524801.6779778103</v>
+        <v>574201.0444181986</v>
       </c>
       <c r="AE4" t="n">
-        <v>718056.8084252435</v>
+        <v>785647.2009352199</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.460623326424796e-06</v>
+        <v>3.653639806939951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.16458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>649526.4744281978</v>
+        <v>710666.1347407337</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1263.10438228083</v>
+        <v>1354.962608764372</v>
       </c>
       <c r="AB2" t="n">
-        <v>1728.235140069159</v>
+        <v>1853.919618042883</v>
       </c>
       <c r="AC2" t="n">
-        <v>1563.294803894211</v>
+        <v>1676.984131689395</v>
       </c>
       <c r="AD2" t="n">
-        <v>1263104.38228083</v>
+        <v>1354962.608764372</v>
       </c>
       <c r="AE2" t="n">
-        <v>1728235.140069159</v>
+        <v>1853919.618042883</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531715389005731e-06</v>
+        <v>2.252299373949622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1563294.803894211</v>
+        <v>1676984.131689395</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.876739597429</v>
+        <v>605.0278658358603</v>
       </c>
       <c r="AB3" t="n">
-        <v>759.2068345512826</v>
+        <v>827.8258179822427</v>
       </c>
       <c r="AC3" t="n">
-        <v>686.749199815192</v>
+        <v>748.8192837748495</v>
       </c>
       <c r="AD3" t="n">
-        <v>554876.7395974291</v>
+        <v>605027.8658358604</v>
       </c>
       <c r="AE3" t="n">
-        <v>759206.8345512826</v>
+        <v>827825.8179822427</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408787747719277e-06</v>
+        <v>3.541983827483337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>686749.199815192</v>
+        <v>748819.2837748495</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>526.2705698305707</v>
+        <v>584.6947718275261</v>
       </c>
       <c r="AB4" t="n">
-        <v>720.0666110611255</v>
+        <v>800.0051817272415</v>
       </c>
       <c r="AC4" t="n">
-        <v>651.3444643212869</v>
+        <v>723.6538099975171</v>
       </c>
       <c r="AD4" t="n">
-        <v>526270.5698305707</v>
+        <v>584694.771827526</v>
       </c>
       <c r="AE4" t="n">
-        <v>720066.6110611255</v>
+        <v>800005.1817272415</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.461195753867872e-06</v>
+        <v>3.619046785971368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>651344.4643212869</v>
+        <v>723653.8099975171</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2096.05148453305</v>
+        <v>2207.532170895312</v>
       </c>
       <c r="AB2" t="n">
-        <v>2867.910112403321</v>
+        <v>3020.442905665116</v>
       </c>
       <c r="AC2" t="n">
-        <v>2594.200796412671</v>
+        <v>2732.176073966566</v>
       </c>
       <c r="AD2" t="n">
-        <v>2096051.48453305</v>
+        <v>2207532.170895312</v>
       </c>
       <c r="AE2" t="n">
-        <v>2867910.112403322</v>
+        <v>3020442.905665115</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.163464607123942e-06</v>
+        <v>1.68326860606523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.33125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2594200.796412671</v>
+        <v>2732176.073966566</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>734.8755300825511</v>
+        <v>794.8642451948347</v>
       </c>
       <c r="AB3" t="n">
-        <v>1005.489120679216</v>
+        <v>1087.568327211171</v>
       </c>
       <c r="AC3" t="n">
-        <v>909.5266502144349</v>
+        <v>983.7723324738706</v>
       </c>
       <c r="AD3" t="n">
-        <v>734875.5300825511</v>
+        <v>794864.2451948347</v>
       </c>
       <c r="AE3" t="n">
-        <v>1005489.120679216</v>
+        <v>1087568.327211171</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.116058606738312e-06</v>
+        <v>3.061455414721773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.47708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>909526.6502144348</v>
+        <v>983772.3324738706</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>554.0244514910742</v>
+        <v>614.0130770948067</v>
       </c>
       <c r="AB4" t="n">
-        <v>758.0406963638701</v>
+        <v>840.1197804262771</v>
       </c>
       <c r="AC4" t="n">
-        <v>685.6943562197009</v>
+        <v>759.93992769791</v>
       </c>
       <c r="AD4" t="n">
-        <v>554024.4514910742</v>
+        <v>614013.0770948067</v>
       </c>
       <c r="AE4" t="n">
-        <v>758040.6963638701</v>
+        <v>840119.7804262771</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436481935722522e-06</v>
+        <v>3.525035077590344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.57291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>685694.3562197009</v>
+        <v>759939.92769791</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>552.1185664334492</v>
+        <v>603.6958785379959</v>
       </c>
       <c r="AB5" t="n">
-        <v>755.4329803463132</v>
+        <v>826.0033341981722</v>
       </c>
       <c r="AC5" t="n">
-        <v>683.3355169589072</v>
+        <v>747.1707352852586</v>
       </c>
       <c r="AD5" t="n">
-        <v>552118.5664334493</v>
+        <v>603695.8785379959</v>
       </c>
       <c r="AE5" t="n">
-        <v>755432.9803463132</v>
+        <v>826003.3341981722</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.443834467365115e-06</v>
+        <v>3.535672518225235e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.53541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>683335.5169589072</v>
+        <v>747170.7352852586</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>752.4376132141559</v>
+        <v>825.2145554583748</v>
       </c>
       <c r="AB2" t="n">
-        <v>1029.518337604304</v>
+        <v>1129.094960674937</v>
       </c>
       <c r="AC2" t="n">
-        <v>931.2625524014103</v>
+        <v>1021.33572232285</v>
       </c>
       <c r="AD2" t="n">
-        <v>752437.6132141559</v>
+        <v>825214.5554583748</v>
       </c>
       <c r="AE2" t="n">
-        <v>1029518.337604304</v>
+        <v>1129094.960674937</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.002260056481875e-06</v>
+        <v>3.006763120115305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.55416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>931262.5524014103</v>
+        <v>1021335.72232285</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.5363939502979</v>
+        <v>571.2070585826906</v>
       </c>
       <c r="AB3" t="n">
-        <v>704.0113939464321</v>
+        <v>781.5506974297446</v>
       </c>
       <c r="AC3" t="n">
-        <v>636.821534594381</v>
+        <v>706.9605957803421</v>
       </c>
       <c r="AD3" t="n">
-        <v>514536.3939502979</v>
+        <v>571207.0585826905</v>
       </c>
       <c r="AE3" t="n">
-        <v>704011.3939464322</v>
+        <v>781550.6974297445</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.444519945010368e-06</v>
+        <v>3.670897990123294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.55833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>636821.534594381</v>
+        <v>706960.5957803421</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>525.748984640423</v>
+        <v>588.5291797224947</v>
       </c>
       <c r="AB2" t="n">
-        <v>719.3529551932506</v>
+        <v>805.2515877712751</v>
       </c>
       <c r="AC2" t="n">
-        <v>650.6989187678198</v>
+        <v>728.3995064120857</v>
       </c>
       <c r="AD2" t="n">
-        <v>525748.984640423</v>
+        <v>588529.1797224948</v>
       </c>
       <c r="AE2" t="n">
-        <v>719352.9551932507</v>
+        <v>805251.5877712751</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.352989840354872e-06</v>
+        <v>3.608890517796018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.67291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>650698.9187678198</v>
+        <v>728399.5064120856</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.4948537975247</v>
+        <v>573.416946396067</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.427533344331</v>
+        <v>784.574363429376</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.720765249744</v>
+        <v>709.6956873407108</v>
       </c>
       <c r="AD3" t="n">
-        <v>518494.8537975247</v>
+        <v>573416.946396067</v>
       </c>
       <c r="AE3" t="n">
-        <v>709427.533344331</v>
+        <v>784574.363429376</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.380829990589369e-06</v>
+        <v>3.651590257706557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>641720.7652497439</v>
+        <v>709695.6873407108</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.4777631293027</v>
+        <v>592.8238438500341</v>
       </c>
       <c r="AB2" t="n">
-        <v>727.1913226576058</v>
+        <v>811.1277366977837</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.7892034425947</v>
+        <v>733.7148439322751</v>
       </c>
       <c r="AD2" t="n">
-        <v>531477.7631293028</v>
+        <v>592823.8438500341</v>
       </c>
       <c r="AE2" t="n">
-        <v>727191.3226576059</v>
+        <v>811127.7366977837</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.277206033541809e-06</v>
+        <v>3.558089508687631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.68333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>657789.2034425947</v>
+        <v>733714.8439322751</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>646.9322880721321</v>
+        <v>727.0562649683721</v>
       </c>
       <c r="AB2" t="n">
-        <v>885.1612971785446</v>
+        <v>994.7904571883657</v>
       </c>
       <c r="AC2" t="n">
-        <v>800.6827453075068</v>
+        <v>899.849052151483</v>
       </c>
       <c r="AD2" t="n">
-        <v>646932.2880721322</v>
+        <v>727056.2649683722</v>
       </c>
       <c r="AE2" t="n">
-        <v>885161.2971785446</v>
+        <v>994790.4571883657</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.86438102845858e-06</v>
+        <v>3.038337265075223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>800682.7453075069</v>
+        <v>899849.052151483</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1112.349442890717</v>
+        <v>1195.321399282929</v>
       </c>
       <c r="AB2" t="n">
-        <v>1521.965581157074</v>
+        <v>1635.491472357272</v>
       </c>
       <c r="AC2" t="n">
-        <v>1376.711322183551</v>
+        <v>1479.402461662191</v>
       </c>
       <c r="AD2" t="n">
-        <v>1112349.442890717</v>
+        <v>1195321.399282929</v>
       </c>
       <c r="AE2" t="n">
-        <v>1521965.581157074</v>
+        <v>1635491.472357271</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.639635894883975e-06</v>
+        <v>2.422366597911002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>1376711.322183551</v>
+        <v>1479402.461662191</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>532.3552103036257</v>
+        <v>582.1384736475039</v>
       </c>
       <c r="AB3" t="n">
-        <v>728.3918845917516</v>
+        <v>796.5075417814187</v>
       </c>
       <c r="AC3" t="n">
-        <v>658.8751854307449</v>
+        <v>720.4899798991553</v>
       </c>
       <c r="AD3" t="n">
-        <v>532355.2103036257</v>
+        <v>582138.4736475039</v>
       </c>
       <c r="AE3" t="n">
-        <v>728391.8845917516</v>
+        <v>796507.5417814187</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.448529091149464e-06</v>
+        <v>3.617409879181472e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.09166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>658875.1854307449</v>
+        <v>720489.9798991553</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>530.6447308330679</v>
+        <v>580.4279941769461</v>
       </c>
       <c r="AB4" t="n">
-        <v>726.0515311191061</v>
+        <v>794.1671883087731</v>
       </c>
       <c r="AC4" t="n">
-        <v>656.758192008822</v>
+        <v>718.3729864772323</v>
       </c>
       <c r="AD4" t="n">
-        <v>530644.7308330679</v>
+        <v>580427.9941769461</v>
       </c>
       <c r="AE4" t="n">
-        <v>726051.5311191061</v>
+        <v>794167.1883087731</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.45791514497716e-06</v>
+        <v>3.631276654939034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>656758.192008822</v>
+        <v>718372.9864772323</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1836.423844698692</v>
+        <v>1947.215280773307</v>
       </c>
       <c r="AB2" t="n">
-        <v>2512.676121618865</v>
+        <v>2664.265852229351</v>
       </c>
       <c r="AC2" t="n">
-        <v>2272.869839134646</v>
+        <v>2409.992058613189</v>
       </c>
       <c r="AD2" t="n">
-        <v>1836423.844698692</v>
+        <v>1947215.280773307</v>
       </c>
       <c r="AE2" t="n">
-        <v>2512676.121618865</v>
+        <v>2664265.852229351</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.250244453296612e-06</v>
+        <v>1.815566257039126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.70625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2272869.839134646</v>
+        <v>2409992.058613189</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>687.8760348314419</v>
+        <v>747.4936633703677</v>
       </c>
       <c r="AB3" t="n">
-        <v>941.182337805256</v>
+        <v>1022.753807316359</v>
       </c>
       <c r="AC3" t="n">
-        <v>851.3572164428293</v>
+        <v>925.1436193900693</v>
       </c>
       <c r="AD3" t="n">
-        <v>687876.0348314418</v>
+        <v>747493.6633703677</v>
       </c>
       <c r="AE3" t="n">
-        <v>941182.337805256</v>
+        <v>1022753.807316359</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188372614587843e-06</v>
+        <v>3.177886905555083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.11666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>851357.2164428293</v>
+        <v>925143.6193900693</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>545.2761289159311</v>
+        <v>604.8936679463061</v>
       </c>
       <c r="AB4" t="n">
-        <v>746.0708554678065</v>
+        <v>827.6422025093614</v>
       </c>
       <c r="AC4" t="n">
-        <v>674.8669001389803</v>
+        <v>748.653192304994</v>
       </c>
       <c r="AD4" t="n">
-        <v>545276.1289159311</v>
+        <v>604893.6679463061</v>
       </c>
       <c r="AE4" t="n">
-        <v>746070.8554678065</v>
+        <v>827642.2025093613</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446072431930053e-06</v>
+        <v>3.552110595632645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.62916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>674866.9001389804</v>
+        <v>748653.192304994</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>546.9040244470169</v>
+        <v>606.5215634773919</v>
       </c>
       <c r="AB5" t="n">
-        <v>748.2982139511204</v>
+        <v>829.8695609926752</v>
       </c>
       <c r="AC5" t="n">
-        <v>676.8816826547639</v>
+        <v>750.6679748207777</v>
       </c>
       <c r="AD5" t="n">
-        <v>546904.0244470169</v>
+        <v>606521.5634773918</v>
       </c>
       <c r="AE5" t="n">
-        <v>748298.2139511204</v>
+        <v>829869.5609926753</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.447555169659294e-06</v>
+        <v>3.554263781421354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.62083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>676881.6826547639</v>
+        <v>750667.9748207777</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>777.882813500486</v>
+        <v>877.3314273749984</v>
       </c>
       <c r="AB2" t="n">
-        <v>1064.333583199071</v>
+        <v>1200.403564065378</v>
       </c>
       <c r="AC2" t="n">
-        <v>962.7550798201169</v>
+        <v>1085.838732687961</v>
       </c>
       <c r="AD2" t="n">
-        <v>777882.813500486</v>
+        <v>877331.4273749983</v>
       </c>
       <c r="AE2" t="n">
-        <v>1064333.583199071</v>
+        <v>1200403.564065378</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.536187852671345e-06</v>
+        <v>2.560733625802846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>962755.0798201169</v>
+        <v>1085838.732687961</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.9675908029139</v>
+        <v>631.4225777548694</v>
       </c>
       <c r="AB2" t="n">
-        <v>777.1183146982223</v>
+        <v>863.9402272823376</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.9512334358283</v>
+        <v>781.4869845382352</v>
       </c>
       <c r="AD2" t="n">
-        <v>567967.590802914</v>
+        <v>631422.5777548694</v>
       </c>
       <c r="AE2" t="n">
-        <v>777118.3146982223</v>
+        <v>863940.2272823376</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.280644233932084e-06</v>
+        <v>3.470927561412977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>702951.2334358282</v>
+        <v>781486.9845382352</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.7019211969621</v>
+        <v>574.2144566816526</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.7108520954102</v>
+        <v>785.6655521857848</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.9770444568605</v>
+        <v>710.6827345737008</v>
       </c>
       <c r="AD3" t="n">
-        <v>518701.9211969621</v>
+        <v>574214.4566816526</v>
       </c>
       <c r="AE3" t="n">
-        <v>709710.8520954102</v>
+        <v>785665.5521857848</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.409487732469418e-06</v>
+        <v>3.667015335002755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.12083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>641977.0444568605</v>
+        <v>710682.7345737008</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>862.1930714636854</v>
+        <v>935.6890618409661</v>
       </c>
       <c r="AB2" t="n">
-        <v>1179.690597650392</v>
+        <v>1280.251054098845</v>
       </c>
       <c r="AC2" t="n">
-        <v>1067.10258271679</v>
+        <v>1158.06569033929</v>
       </c>
       <c r="AD2" t="n">
-        <v>862193.0714636855</v>
+        <v>935689.0618409661</v>
       </c>
       <c r="AE2" t="n">
-        <v>1179690.597650392</v>
+        <v>1280251.054098845</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871106778201217e-06</v>
+        <v>2.793395318832435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.50625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1067102.58271679</v>
+        <v>1158065.69033929</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.8604149633261</v>
+        <v>575.8533708339522</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.927710258801</v>
+        <v>787.9079868327505</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.1732059814997</v>
+        <v>712.7111544052369</v>
       </c>
       <c r="AD3" t="n">
-        <v>518860.4149633261</v>
+        <v>575853.3708339522</v>
       </c>
       <c r="AE3" t="n">
-        <v>709927.710258801</v>
+        <v>787907.9868327505</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.4525161442871e-06</v>
+        <v>3.661387579066227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.35625</v>
       </c>
       <c r="AH3" t="n">
-        <v>642173.2059814996</v>
+        <v>712711.1544052369</v>
       </c>
     </row>
   </sheetData>
